--- a/xlsx/梅西百货公司_intext.xlsx
+++ b/xlsx/梅西百货公司_intext.xlsx
@@ -29,7 +29,7 @@
     <t>子公司</t>
   </si>
   <si>
-    <t>政策_政策_美國_梅西百货公司</t>
+    <t>政策_政策_美国_梅西百货公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E8%B2%A8%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>百貨公司</t>
+    <t>百货公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%97%E8%89%A6</t>
   </si>
   <si>
-    <t>旗艦</t>
+    <t>旗舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%A9%B1%E5%B9%BF%E5%9C%BA</t>
